--- a/司龄工资考核表.xlsx
+++ b/司龄工资考核表.xlsx
@@ -405,6 +405,23 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="4"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="17"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="15"/>
+    <col customWidth="1" max="9" min="9" width="30"/>
+    <col customWidth="1" max="10" min="10" width="30"/>
+    <col customWidth="1" max="11" min="11" width="30"/>
+    <col customWidth="1" max="12" min="12" width="10"/>
+    <col customWidth="1" max="13" min="13" width="10"/>
+    <col customWidth="1" max="14" min="14" width="10"/>
+    <col customWidth="1" max="15" min="15" width="70"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
